--- a/input_data/工時及可生產產品對應_V2.xlsx
+++ b/input_data/工時及可生產產品對應_V2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ga_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ga_project\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EEA62F-6A3D-4756-8A4B-B5586D348AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC748D32-7E93-4E03-B6ED-B6042876E425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2308,10 +2308,10 @@
   <dimension ref="A1:N156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C148" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="J165" sqref="J165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6169,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="F88" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" s="5">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="I88" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" s="5">
         <v>0</v>
@@ -6213,7 +6213,7 @@
         <v>0</v>
       </c>
       <c r="F89" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" s="5">
         <v>0</v>
@@ -6222,7 +6222,7 @@
         <v>0</v>
       </c>
       <c r="I89" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" s="5">
         <v>0</v>
@@ -6257,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="F90" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" s="5">
         <v>0</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="I90" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" s="5">
         <v>0</v>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="F91" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" s="5">
         <v>0</v>
@@ -6310,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" s="5">
         <v>0</v>
@@ -8017,7 +8017,7 @@
         <v>0</v>
       </c>
       <c r="F130" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130" s="5">
         <v>0</v>
@@ -8026,7 +8026,7 @@
         <v>0</v>
       </c>
       <c r="I130" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" s="5">
         <v>0</v>
